--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_102.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_102.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32588-d240870-Reviews-Capri_Laguna_On_The_Beach-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>570</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Capri-Laguna-On-The-Beach.h873061.Hotel-Information?chkin=6%2F18%2F2018&amp;chkout=6%2F19%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528078803571&amp;cancellable=false&amp;regionId=8384&amp;vip=false&amp;c=a6bcb262-7687-4671-982e-bca3833cbc1c&amp;mctc=9&amp;exp_dp=184&amp;exp_ts=1528078804096&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_102.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_102.xlsx
@@ -624,7 +624,7 @@
     <t xml:space="preserve">While the view is spectacular, the room is small and the balcony even smaller comparatively speaking. The front desk staff had been very helpful but the free breakfast is quite limited and in an again small space. At $300 + per nite? Even with a free parking, fireplace and balcony overlooking the Pacific and hearing the surf crashing the dated room and property is not the best value, in my option, on the ocean in Laguna Beach especially with 38 steps down to our room and NO elevator. Our fault for note exploring  more. Paul K. Summerland Key Fl </t>
   </si>
   <si>
-    <t>Michael S</t>
+    <t>Brint W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d240870-r567575634-Capri_Laguna_On_The_Beach-Laguna_Beach_California.html</t>
@@ -8543,7 +8543,7 @@
         <v>11610</v>
       </c>
       <c r="B4" t="n">
-        <v>130069</v>
+        <v>160782</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -8612,7 +8612,7 @@
         <v>11610</v>
       </c>
       <c r="B5" t="n">
-        <v>130070</v>
+        <v>160783</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
@@ -8679,7 +8679,7 @@
         <v>11610</v>
       </c>
       <c r="B6" t="n">
-        <v>130071</v>
+        <v>160784</v>
       </c>
       <c r="C6" t="s">
         <v>83</v>
@@ -8744,7 +8744,7 @@
         <v>11610</v>
       </c>
       <c r="B7" t="n">
-        <v>130072</v>
+        <v>160785</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
@@ -8955,7 +8955,7 @@
         <v>11610</v>
       </c>
       <c r="B10" t="n">
-        <v>130073</v>
+        <v>160786</v>
       </c>
       <c r="C10" t="s">
         <v>112</v>
@@ -9016,7 +9016,7 @@
         <v>11610</v>
       </c>
       <c r="B11" t="n">
-        <v>130074</v>
+        <v>160787</v>
       </c>
       <c r="C11" t="s">
         <v>119</v>
@@ -9085,7 +9085,7 @@
         <v>11610</v>
       </c>
       <c r="B12" t="n">
-        <v>130075</v>
+        <v>160788</v>
       </c>
       <c r="C12" t="s">
         <v>128</v>
@@ -9150,7 +9150,7 @@
         <v>11610</v>
       </c>
       <c r="B13" t="n">
-        <v>130076</v>
+        <v>160789</v>
       </c>
       <c r="C13" t="s">
         <v>135</v>
@@ -9219,7 +9219,7 @@
         <v>11610</v>
       </c>
       <c r="B14" t="n">
-        <v>130077</v>
+        <v>130108</v>
       </c>
       <c r="C14" t="s">
         <v>143</v>
@@ -9288,7 +9288,7 @@
         <v>11610</v>
       </c>
       <c r="B15" t="n">
-        <v>130078</v>
+        <v>160790</v>
       </c>
       <c r="C15" t="s">
         <v>153</v>
@@ -9353,7 +9353,7 @@
         <v>11610</v>
       </c>
       <c r="B16" t="n">
-        <v>130079</v>
+        <v>160791</v>
       </c>
       <c r="C16" t="s">
         <v>162</v>
@@ -9491,7 +9491,7 @@
         <v>11610</v>
       </c>
       <c r="B18" t="n">
-        <v>130080</v>
+        <v>160792</v>
       </c>
       <c r="C18" t="s">
         <v>176</v>
@@ -9688,7 +9688,7 @@
         <v>11610</v>
       </c>
       <c r="B21" t="n">
-        <v>35</v>
+        <v>160793</v>
       </c>
       <c r="C21" t="s">
         <v>194</v>
@@ -9757,7 +9757,7 @@
         <v>11610</v>
       </c>
       <c r="B22" t="n">
-        <v>130081</v>
+        <v>160794</v>
       </c>
       <c r="C22" t="s">
         <v>203</v>
@@ -9828,7 +9828,7 @@
         <v>11610</v>
       </c>
       <c r="B23" t="n">
-        <v>130082</v>
+        <v>160795</v>
       </c>
       <c r="C23" t="s">
         <v>209</v>
@@ -10041,7 +10041,7 @@
         <v>11610</v>
       </c>
       <c r="B26" t="n">
-        <v>130083</v>
+        <v>160796</v>
       </c>
       <c r="C26" t="s">
         <v>235</v>
@@ -10102,7 +10102,7 @@
         <v>11610</v>
       </c>
       <c r="B27" t="n">
-        <v>130084</v>
+        <v>160797</v>
       </c>
       <c r="C27" t="s">
         <v>242</v>
@@ -10167,7 +10167,7 @@
         <v>11610</v>
       </c>
       <c r="B28" t="n">
-        <v>130085</v>
+        <v>160798</v>
       </c>
       <c r="C28" t="s">
         <v>249</v>
@@ -10232,7 +10232,7 @@
         <v>11610</v>
       </c>
       <c r="B29" t="n">
-        <v>130086</v>
+        <v>160799</v>
       </c>
       <c r="C29" t="s">
         <v>256</v>
@@ -10362,7 +10362,7 @@
         <v>11610</v>
       </c>
       <c r="B31" t="n">
-        <v>130087</v>
+        <v>160800</v>
       </c>
       <c r="C31" t="s">
         <v>273</v>
@@ -10433,7 +10433,7 @@
         <v>11610</v>
       </c>
       <c r="B32" t="n">
-        <v>130088</v>
+        <v>160801</v>
       </c>
       <c r="C32" t="s">
         <v>282</v>
@@ -10502,7 +10502,7 @@
         <v>11610</v>
       </c>
       <c r="B33" t="n">
-        <v>130089</v>
+        <v>160802</v>
       </c>
       <c r="C33" t="s">
         <v>292</v>
@@ -10571,7 +10571,7 @@
         <v>11610</v>
       </c>
       <c r="B34" t="n">
-        <v>130090</v>
+        <v>160803</v>
       </c>
       <c r="C34" t="s">
         <v>299</v>
@@ -10636,7 +10636,7 @@
         <v>11610</v>
       </c>
       <c r="B35" t="n">
-        <v>130091</v>
+        <v>160804</v>
       </c>
       <c r="C35" t="s">
         <v>306</v>
@@ -10772,7 +10772,7 @@
         <v>11610</v>
       </c>
       <c r="B37" t="n">
-        <v>130092</v>
+        <v>160805</v>
       </c>
       <c r="C37" t="s">
         <v>320</v>
@@ -10837,7 +10837,7 @@
         <v>11610</v>
       </c>
       <c r="B38" t="n">
-        <v>130093</v>
+        <v>160806</v>
       </c>
       <c r="C38" t="s">
         <v>327</v>
@@ -10906,7 +10906,7 @@
         <v>11610</v>
       </c>
       <c r="B39" t="n">
-        <v>130094</v>
+        <v>160807</v>
       </c>
       <c r="C39" t="s">
         <v>337</v>
@@ -10975,7 +10975,7 @@
         <v>11610</v>
       </c>
       <c r="B40" t="n">
-        <v>130095</v>
+        <v>160808</v>
       </c>
       <c r="C40" t="s">
         <v>346</v>
@@ -11375,7 +11375,7 @@
         <v>11610</v>
       </c>
       <c r="B46" t="n">
-        <v>130096</v>
+        <v>160809</v>
       </c>
       <c r="C46" t="s">
         <v>390</v>
@@ -11509,7 +11509,7 @@
         <v>11610</v>
       </c>
       <c r="B48" t="n">
-        <v>130097</v>
+        <v>160810</v>
       </c>
       <c r="C48" t="s">
         <v>406</v>
@@ -11704,7 +11704,7 @@
         <v>11610</v>
       </c>
       <c r="B51" t="n">
-        <v>130098</v>
+        <v>160811</v>
       </c>
       <c r="C51" t="s">
         <v>431</v>
@@ -11775,7 +11775,7 @@
         <v>11610</v>
       </c>
       <c r="B52" t="n">
-        <v>130099</v>
+        <v>160812</v>
       </c>
       <c r="C52" t="s">
         <v>438</v>
@@ -11844,7 +11844,7 @@
         <v>11610</v>
       </c>
       <c r="B53" t="n">
-        <v>130100</v>
+        <v>160813</v>
       </c>
       <c r="C53" t="s">
         <v>444</v>
@@ -11915,7 +11915,7 @@
         <v>11610</v>
       </c>
       <c r="B54" t="n">
-        <v>130101</v>
+        <v>160814</v>
       </c>
       <c r="C54" t="s">
         <v>453</v>
@@ -11986,7 +11986,7 @@
         <v>11610</v>
       </c>
       <c r="B55" t="n">
-        <v>130102</v>
+        <v>160815</v>
       </c>
       <c r="C55" t="s">
         <v>460</v>
@@ -12120,7 +12120,7 @@
         <v>11610</v>
       </c>
       <c r="B57" t="n">
-        <v>130103</v>
+        <v>160816</v>
       </c>
       <c r="C57" t="s">
         <v>477</v>
@@ -12181,7 +12181,7 @@
         <v>11610</v>
       </c>
       <c r="B58" t="n">
-        <v>130104</v>
+        <v>160817</v>
       </c>
       <c r="C58" t="s">
         <v>483</v>
@@ -12246,7 +12246,7 @@
         <v>11610</v>
       </c>
       <c r="B59" t="n">
-        <v>130105</v>
+        <v>160818</v>
       </c>
       <c r="C59" t="s">
         <v>489</v>
@@ -12307,7 +12307,7 @@
         <v>11610</v>
       </c>
       <c r="B60" t="n">
-        <v>130106</v>
+        <v>160819</v>
       </c>
       <c r="C60" t="s">
         <v>498</v>
@@ -12378,7 +12378,7 @@
         <v>11610</v>
       </c>
       <c r="B61" t="n">
-        <v>130107</v>
+        <v>160820</v>
       </c>
       <c r="C61" t="s">
         <v>504</v>
@@ -12514,7 +12514,7 @@
         <v>11610</v>
       </c>
       <c r="B63" t="n">
-        <v>130108</v>
+        <v>160821</v>
       </c>
       <c r="C63" t="s">
         <v>521</v>
@@ -12585,7 +12585,7 @@
         <v>11610</v>
       </c>
       <c r="B64" t="n">
-        <v>130109</v>
+        <v>160822</v>
       </c>
       <c r="C64" t="s">
         <v>530</v>
@@ -12725,7 +12725,7 @@
         <v>11610</v>
       </c>
       <c r="B66" t="n">
-        <v>130110</v>
+        <v>160823</v>
       </c>
       <c r="C66" t="s">
         <v>546</v>
@@ -12790,7 +12790,7 @@
         <v>11610</v>
       </c>
       <c r="B67" t="n">
-        <v>130111</v>
+        <v>160824</v>
       </c>
       <c r="C67" t="s">
         <v>553</v>
@@ -12859,7 +12859,7 @@
         <v>11610</v>
       </c>
       <c r="B68" t="n">
-        <v>130112</v>
+        <v>160825</v>
       </c>
       <c r="C68" t="s">
         <v>561</v>
@@ -12928,7 +12928,7 @@
         <v>11610</v>
       </c>
       <c r="B69" t="n">
-        <v>130113</v>
+        <v>160826</v>
       </c>
       <c r="C69" t="s">
         <v>568</v>
@@ -12993,7 +12993,7 @@
         <v>11610</v>
       </c>
       <c r="B70" t="n">
-        <v>130114</v>
+        <v>160827</v>
       </c>
       <c r="C70" t="s">
         <v>573</v>
@@ -13253,7 +13253,7 @@
         <v>11610</v>
       </c>
       <c r="B74" t="n">
-        <v>130115</v>
+        <v>160828</v>
       </c>
       <c r="C74" t="s">
         <v>600</v>
@@ -13320,7 +13320,7 @@
         <v>11610</v>
       </c>
       <c r="B75" t="n">
-        <v>130116</v>
+        <v>160829</v>
       </c>
       <c r="C75" t="s">
         <v>607</v>
@@ -13389,7 +13389,7 @@
         <v>11610</v>
       </c>
       <c r="B76" t="n">
-        <v>130117</v>
+        <v>160830</v>
       </c>
       <c r="C76" t="s">
         <v>616</v>
@@ -13456,7 +13456,7 @@
         <v>11610</v>
       </c>
       <c r="B77" t="n">
-        <v>130118</v>
+        <v>160831</v>
       </c>
       <c r="C77" t="s">
         <v>622</v>
@@ -13525,7 +13525,7 @@
         <v>11610</v>
       </c>
       <c r="B78" t="n">
-        <v>130119</v>
+        <v>160832</v>
       </c>
       <c r="C78" t="s">
         <v>631</v>
@@ -13590,7 +13590,7 @@
         <v>11610</v>
       </c>
       <c r="B79" t="n">
-        <v>130120</v>
+        <v>160833</v>
       </c>
       <c r="C79" t="s">
         <v>638</v>
@@ -13657,7 +13657,7 @@
         <v>11610</v>
       </c>
       <c r="B80" t="n">
-        <v>130121</v>
+        <v>160834</v>
       </c>
       <c r="C80" t="s">
         <v>644</v>
@@ -13726,7 +13726,7 @@
         <v>11610</v>
       </c>
       <c r="B81" t="n">
-        <v>130122</v>
+        <v>160835</v>
       </c>
       <c r="C81" t="s">
         <v>653</v>
@@ -13797,7 +13797,7 @@
         <v>11610</v>
       </c>
       <c r="B82" t="n">
-        <v>130123</v>
+        <v>160836</v>
       </c>
       <c r="C82" t="s">
         <v>662</v>
@@ -13866,7 +13866,7 @@
         <v>11610</v>
       </c>
       <c r="B83" t="n">
-        <v>130124</v>
+        <v>160837</v>
       </c>
       <c r="C83" t="s">
         <v>669</v>
@@ -13931,7 +13931,7 @@
         <v>11610</v>
       </c>
       <c r="B84" t="n">
-        <v>130125</v>
+        <v>160838</v>
       </c>
       <c r="C84" t="s">
         <v>675</v>
@@ -13992,7 +13992,7 @@
         <v>11610</v>
       </c>
       <c r="B85" t="n">
-        <v>130126</v>
+        <v>160839</v>
       </c>
       <c r="C85" t="s">
         <v>680</v>
@@ -14059,7 +14059,7 @@
         <v>11610</v>
       </c>
       <c r="B86" t="n">
-        <v>130127</v>
+        <v>160840</v>
       </c>
       <c r="C86" t="s">
         <v>687</v>
@@ -14128,7 +14128,7 @@
         <v>11610</v>
       </c>
       <c r="B87" t="n">
-        <v>130128</v>
+        <v>160841</v>
       </c>
       <c r="C87" t="s">
         <v>696</v>
@@ -14189,7 +14189,7 @@
         <v>11610</v>
       </c>
       <c r="B88" t="n">
-        <v>130129</v>
+        <v>160842</v>
       </c>
       <c r="C88" t="s">
         <v>703</v>
@@ -14327,7 +14327,7 @@
         <v>11610</v>
       </c>
       <c r="B90" t="n">
-        <v>130130</v>
+        <v>160843</v>
       </c>
       <c r="C90" t="s">
         <v>719</v>
@@ -14599,7 +14599,7 @@
         <v>11610</v>
       </c>
       <c r="B94" t="n">
-        <v>130131</v>
+        <v>160844</v>
       </c>
       <c r="C94" t="s">
         <v>746</v>
@@ -14660,7 +14660,7 @@
         <v>11610</v>
       </c>
       <c r="B95" t="n">
-        <v>130132</v>
+        <v>160845</v>
       </c>
       <c r="C95" t="s">
         <v>751</v>
@@ -14727,7 +14727,7 @@
         <v>11610</v>
       </c>
       <c r="B96" t="n">
-        <v>130133</v>
+        <v>160846</v>
       </c>
       <c r="C96" t="s">
         <v>757</v>
@@ -15001,7 +15001,7 @@
         <v>11610</v>
       </c>
       <c r="B100" t="n">
-        <v>130134</v>
+        <v>160847</v>
       </c>
       <c r="C100" t="s">
         <v>784</v>
@@ -15072,7 +15072,7 @@
         <v>11610</v>
       </c>
       <c r="B101" t="n">
-        <v>130135</v>
+        <v>160848</v>
       </c>
       <c r="C101" t="s">
         <v>791</v>
@@ -15133,7 +15133,7 @@
         <v>11610</v>
       </c>
       <c r="B102" t="n">
-        <v>130136</v>
+        <v>160849</v>
       </c>
       <c r="C102" t="s">
         <v>800</v>
@@ -15198,7 +15198,7 @@
         <v>11610</v>
       </c>
       <c r="B103" t="n">
-        <v>130137</v>
+        <v>160850</v>
       </c>
       <c r="C103" t="s">
         <v>808</v>
@@ -15324,7 +15324,7 @@
         <v>11610</v>
       </c>
       <c r="B105" t="n">
-        <v>130138</v>
+        <v>160851</v>
       </c>
       <c r="C105" t="s">
         <v>821</v>
@@ -15391,7 +15391,7 @@
         <v>11610</v>
       </c>
       <c r="B106" t="n">
-        <v>130139</v>
+        <v>160852</v>
       </c>
       <c r="C106" t="s">
         <v>827</v>
@@ -15458,7 +15458,7 @@
         <v>11610</v>
       </c>
       <c r="B107" t="n">
-        <v>130140</v>
+        <v>160853</v>
       </c>
       <c r="C107" t="s">
         <v>833</v>
@@ -15594,7 +15594,7 @@
         <v>11610</v>
       </c>
       <c r="B109" t="n">
-        <v>130141</v>
+        <v>160854</v>
       </c>
       <c r="C109" t="s">
         <v>848</v>
@@ -15659,7 +15659,7 @@
         <v>11610</v>
       </c>
       <c r="B110" t="n">
-        <v>130142</v>
+        <v>160855</v>
       </c>
       <c r="C110" t="s">
         <v>855</v>
@@ -15787,7 +15787,7 @@
         <v>11610</v>
       </c>
       <c r="B112" t="n">
-        <v>130143</v>
+        <v>160856</v>
       </c>
       <c r="C112" t="s">
         <v>871</v>
@@ -15856,7 +15856,7 @@
         <v>11610</v>
       </c>
       <c r="B113" t="n">
-        <v>130144</v>
+        <v>160857</v>
       </c>
       <c r="C113" t="s">
         <v>878</v>
@@ -15921,7 +15921,7 @@
         <v>11610</v>
       </c>
       <c r="B114" t="n">
-        <v>130145</v>
+        <v>160858</v>
       </c>
       <c r="C114" t="s">
         <v>885</v>
@@ -16126,7 +16126,7 @@
         <v>11610</v>
       </c>
       <c r="B117" t="n">
-        <v>130146</v>
+        <v>160859</v>
       </c>
       <c r="C117" t="s">
         <v>909</v>
@@ -16195,7 +16195,7 @@
         <v>11610</v>
       </c>
       <c r="B118" t="n">
-        <v>130147</v>
+        <v>160860</v>
       </c>
       <c r="C118" t="s">
         <v>915</v>
@@ -16264,7 +16264,7 @@
         <v>11610</v>
       </c>
       <c r="B119" t="n">
-        <v>130148</v>
+        <v>160861</v>
       </c>
       <c r="C119" t="s">
         <v>922</v>
@@ -16333,7 +16333,7 @@
         <v>11610</v>
       </c>
       <c r="B120" t="n">
-        <v>130149</v>
+        <v>160862</v>
       </c>
       <c r="C120" t="s">
         <v>931</v>
@@ -16404,7 +16404,7 @@
         <v>11610</v>
       </c>
       <c r="B121" t="n">
-        <v>130150</v>
+        <v>160863</v>
       </c>
       <c r="C121" t="s">
         <v>938</v>
@@ -16469,7 +16469,7 @@
         <v>11610</v>
       </c>
       <c r="B122" t="n">
-        <v>130151</v>
+        <v>160864</v>
       </c>
       <c r="C122" t="s">
         <v>945</v>
@@ -16540,7 +16540,7 @@
         <v>11610</v>
       </c>
       <c r="B123" t="n">
-        <v>130152</v>
+        <v>160865</v>
       </c>
       <c r="C123" t="s">
         <v>954</v>
@@ -16605,7 +16605,7 @@
         <v>11610</v>
       </c>
       <c r="B124" t="n">
-        <v>130153</v>
+        <v>160866</v>
       </c>
       <c r="C124" t="s">
         <v>962</v>
@@ -16670,7 +16670,7 @@
         <v>11610</v>
       </c>
       <c r="B125" t="n">
-        <v>130154</v>
+        <v>160867</v>
       </c>
       <c r="C125" t="s">
         <v>967</v>
@@ -16735,7 +16735,7 @@
         <v>11610</v>
       </c>
       <c r="B126" t="n">
-        <v>130155</v>
+        <v>160868</v>
       </c>
       <c r="C126" t="s">
         <v>973</v>
@@ -16800,7 +16800,7 @@
         <v>11610</v>
       </c>
       <c r="B127" t="n">
-        <v>130156</v>
+        <v>160869</v>
       </c>
       <c r="C127" t="s">
         <v>979</v>
@@ -16930,7 +16930,7 @@
         <v>11610</v>
       </c>
       <c r="B129" t="n">
-        <v>130157</v>
+        <v>160870</v>
       </c>
       <c r="C129" t="s">
         <v>997</v>
@@ -16999,7 +16999,7 @@
         <v>11610</v>
       </c>
       <c r="B130" t="n">
-        <v>130158</v>
+        <v>160871</v>
       </c>
       <c r="C130" t="s">
         <v>1004</v>
@@ -17064,7 +17064,7 @@
         <v>11610</v>
       </c>
       <c r="B131" t="n">
-        <v>130159</v>
+        <v>160872</v>
       </c>
       <c r="C131" t="s">
         <v>1013</v>
@@ -17133,7 +17133,7 @@
         <v>11610</v>
       </c>
       <c r="B132" t="n">
-        <v>130160</v>
+        <v>160873</v>
       </c>
       <c r="C132" t="s">
         <v>1022</v>
@@ -17202,7 +17202,7 @@
         <v>11610</v>
       </c>
       <c r="B133" t="n">
-        <v>130161</v>
+        <v>160874</v>
       </c>
       <c r="C133" t="s">
         <v>1029</v>
@@ -17267,7 +17267,7 @@
         <v>11610</v>
       </c>
       <c r="B134" t="n">
-        <v>130162</v>
+        <v>160875</v>
       </c>
       <c r="C134" t="s">
         <v>1036</v>
@@ -17328,7 +17328,7 @@
         <v>11610</v>
       </c>
       <c r="B135" t="n">
-        <v>130163</v>
+        <v>160876</v>
       </c>
       <c r="C135" t="s">
         <v>1043</v>
@@ -17399,7 +17399,7 @@
         <v>11610</v>
       </c>
       <c r="B136" t="n">
-        <v>130164</v>
+        <v>160877</v>
       </c>
       <c r="C136" t="s">
         <v>1050</v>
@@ -17466,7 +17466,7 @@
         <v>11610</v>
       </c>
       <c r="B137" t="n">
-        <v>130165</v>
+        <v>160878</v>
       </c>
       <c r="C137" t="s">
         <v>1056</v>
@@ -17531,7 +17531,7 @@
         <v>11610</v>
       </c>
       <c r="B138" t="n">
-        <v>130166</v>
+        <v>160879</v>
       </c>
       <c r="C138" t="s">
         <v>1065</v>
@@ -17665,7 +17665,7 @@
         <v>11610</v>
       </c>
       <c r="B140" t="n">
-        <v>130076</v>
+        <v>130108</v>
       </c>
       <c r="C140" t="s">
         <v>143</v>
@@ -17736,7 +17736,7 @@
         <v>11610</v>
       </c>
       <c r="B141" t="n">
-        <v>130167</v>
+        <v>160880</v>
       </c>
       <c r="C141" t="s">
         <v>1085</v>
@@ -17801,7 +17801,7 @@
         <v>11610</v>
       </c>
       <c r="B142" t="n">
-        <v>130168</v>
+        <v>160881</v>
       </c>
       <c r="C142" t="s">
         <v>1090</v>
@@ -17872,7 +17872,7 @@
         <v>11610</v>
       </c>
       <c r="B143" t="n">
-        <v>130169</v>
+        <v>160882</v>
       </c>
       <c r="C143" t="s">
         <v>1098</v>
@@ -18203,7 +18203,7 @@
         <v>11610</v>
       </c>
       <c r="B148" t="n">
-        <v>130170</v>
+        <v>160883</v>
       </c>
       <c r="C148" t="s">
         <v>1133</v>
@@ -18274,7 +18274,7 @@
         <v>11610</v>
       </c>
       <c r="B149" t="n">
-        <v>130171</v>
+        <v>160884</v>
       </c>
       <c r="C149" t="s">
         <v>1140</v>
@@ -18339,7 +18339,7 @@
         <v>11610</v>
       </c>
       <c r="B150" t="n">
-        <v>130172</v>
+        <v>160885</v>
       </c>
       <c r="C150" t="s">
         <v>1149</v>
@@ -18469,7 +18469,7 @@
         <v>11610</v>
       </c>
       <c r="B152" t="n">
-        <v>130173</v>
+        <v>160886</v>
       </c>
       <c r="C152" t="s">
         <v>1164</v>
@@ -18609,7 +18609,7 @@
         <v>11610</v>
       </c>
       <c r="B154" t="n">
-        <v>130174</v>
+        <v>160887</v>
       </c>
       <c r="C154" t="s">
         <v>1180</v>
@@ -18873,7 +18873,7 @@
         <v>11610</v>
       </c>
       <c r="B158" t="n">
-        <v>130175</v>
+        <v>160888</v>
       </c>
       <c r="C158" t="s">
         <v>1211</v>
@@ -18938,7 +18938,7 @@
         <v>11610</v>
       </c>
       <c r="B159" t="n">
-        <v>130176</v>
+        <v>160889</v>
       </c>
       <c r="C159" t="s">
         <v>1220</v>
@@ -19009,7 +19009,7 @@
         <v>11610</v>
       </c>
       <c r="B160" t="n">
-        <v>130177</v>
+        <v>160890</v>
       </c>
       <c r="C160" t="s">
         <v>1228</v>
@@ -19145,7 +19145,7 @@
         <v>11610</v>
       </c>
       <c r="B162" t="n">
-        <v>130178</v>
+        <v>160891</v>
       </c>
       <c r="C162" t="s">
         <v>1244</v>
@@ -19212,7 +19212,7 @@
         <v>11610</v>
       </c>
       <c r="B163" t="n">
-        <v>130179</v>
+        <v>160892</v>
       </c>
       <c r="C163" t="s">
         <v>1250</v>
@@ -19348,7 +19348,7 @@
         <v>11610</v>
       </c>
       <c r="B165" t="n">
-        <v>130180</v>
+        <v>160893</v>
       </c>
       <c r="C165" t="s">
         <v>1266</v>
@@ -19409,7 +19409,7 @@
         <v>11610</v>
       </c>
       <c r="B166" t="n">
-        <v>130181</v>
+        <v>160894</v>
       </c>
       <c r="C166" t="s">
         <v>1272</v>
@@ -19614,7 +19614,7 @@
         <v>11610</v>
       </c>
       <c r="B169" t="n">
-        <v>130182</v>
+        <v>160895</v>
       </c>
       <c r="C169" t="s">
         <v>1297</v>
@@ -19683,7 +19683,7 @@
         <v>11610</v>
       </c>
       <c r="B170" t="n">
-        <v>130183</v>
+        <v>160896</v>
       </c>
       <c r="C170" t="s">
         <v>1305</v>
@@ -19750,7 +19750,7 @@
         <v>11610</v>
       </c>
       <c r="B171" t="n">
-        <v>130184</v>
+        <v>160897</v>
       </c>
       <c r="C171" t="s">
         <v>1312</v>
@@ -19821,7 +19821,7 @@
         <v>11610</v>
       </c>
       <c r="B172" t="n">
-        <v>130185</v>
+        <v>160898</v>
       </c>
       <c r="C172" t="s">
         <v>1321</v>
@@ -19890,7 +19890,7 @@
         <v>11610</v>
       </c>
       <c r="B173" t="n">
-        <v>130186</v>
+        <v>160899</v>
       </c>
       <c r="C173" t="s">
         <v>1327</v>
@@ -20026,7 +20026,7 @@
         <v>11610</v>
       </c>
       <c r="B175" t="n">
-        <v>130187</v>
+        <v>160900</v>
       </c>
       <c r="C175" t="s">
         <v>1343</v>
@@ -20097,7 +20097,7 @@
         <v>11610</v>
       </c>
       <c r="B176" t="n">
-        <v>130188</v>
+        <v>160901</v>
       </c>
       <c r="C176" t="s">
         <v>1350</v>
@@ -20168,7 +20168,7 @@
         <v>11610</v>
       </c>
       <c r="B177" t="n">
-        <v>130189</v>
+        <v>160902</v>
       </c>
       <c r="C177" t="s">
         <v>1359</v>
@@ -20239,7 +20239,7 @@
         <v>11610</v>
       </c>
       <c r="B178" t="n">
-        <v>130190</v>
+        <v>160903</v>
       </c>
       <c r="C178" t="s">
         <v>1366</v>
@@ -20371,7 +20371,7 @@
         <v>11610</v>
       </c>
       <c r="B180" t="n">
-        <v>130191</v>
+        <v>160904</v>
       </c>
       <c r="C180" t="s">
         <v>1382</v>
@@ -20442,7 +20442,7 @@
         <v>11610</v>
       </c>
       <c r="B181" t="n">
-        <v>130192</v>
+        <v>160905</v>
       </c>
       <c r="C181" t="s">
         <v>1389</v>
@@ -20503,7 +20503,7 @@
         <v>11610</v>
       </c>
       <c r="B182" t="n">
-        <v>130193</v>
+        <v>160906</v>
       </c>
       <c r="C182" t="s">
         <v>1395</v>
@@ -20572,7 +20572,7 @@
         <v>11610</v>
       </c>
       <c r="B183" t="n">
-        <v>130194</v>
+        <v>160907</v>
       </c>
       <c r="C183" t="s">
         <v>1404</v>
@@ -20714,7 +20714,7 @@
         <v>11610</v>
       </c>
       <c r="B185" t="n">
-        <v>130195</v>
+        <v>160908</v>
       </c>
       <c r="C185" t="s">
         <v>1418</v>
@@ -20781,7 +20781,7 @@
         <v>11610</v>
       </c>
       <c r="B186" t="n">
-        <v>130196</v>
+        <v>160909</v>
       </c>
       <c r="C186" t="s">
         <v>1425</v>
@@ -20848,7 +20848,7 @@
         <v>11610</v>
       </c>
       <c r="B187" t="n">
-        <v>130197</v>
+        <v>160910</v>
       </c>
       <c r="C187" t="s">
         <v>1432</v>
@@ -20978,7 +20978,7 @@
         <v>11610</v>
       </c>
       <c r="B189" t="n">
-        <v>130198</v>
+        <v>160911</v>
       </c>
       <c r="C189" t="s">
         <v>1448</v>
@@ -21171,7 +21171,7 @@
         <v>11610</v>
       </c>
       <c r="B192" t="n">
-        <v>130199</v>
+        <v>160912</v>
       </c>
       <c r="C192" t="s">
         <v>1465</v>
@@ -21236,7 +21236,7 @@
         <v>11610</v>
       </c>
       <c r="B193" t="n">
-        <v>130200</v>
+        <v>160913</v>
       </c>
       <c r="C193" t="s">
         <v>1474</v>
@@ -21372,7 +21372,7 @@
         <v>11610</v>
       </c>
       <c r="B195" t="n">
-        <v>130201</v>
+        <v>160914</v>
       </c>
       <c r="C195" t="s">
         <v>1490</v>
@@ -21514,7 +21514,7 @@
         <v>11610</v>
       </c>
       <c r="B197" t="n">
-        <v>130202</v>
+        <v>160915</v>
       </c>
       <c r="C197" t="s">
         <v>1503</v>
@@ -21585,7 +21585,7 @@
         <v>11610</v>
       </c>
       <c r="B198" t="n">
-        <v>130203</v>
+        <v>160916</v>
       </c>
       <c r="C198" t="s">
         <v>1510</v>
@@ -21656,7 +21656,7 @@
         <v>11610</v>
       </c>
       <c r="B199" t="n">
-        <v>130204</v>
+        <v>160917</v>
       </c>
       <c r="C199" t="s">
         <v>1517</v>
@@ -21727,7 +21727,7 @@
         <v>11610</v>
       </c>
       <c r="B200" t="n">
-        <v>130205</v>
+        <v>160918</v>
       </c>
       <c r="C200" t="s">
         <v>1527</v>
@@ -21924,7 +21924,7 @@
         <v>11610</v>
       </c>
       <c r="B203" t="n">
-        <v>130206</v>
+        <v>160919</v>
       </c>
       <c r="C203" t="s">
         <v>1550</v>
@@ -21995,7 +21995,7 @@
         <v>11610</v>
       </c>
       <c r="B204" t="n">
-        <v>130207</v>
+        <v>160920</v>
       </c>
       <c r="C204" t="s">
         <v>1560</v>
@@ -22066,7 +22066,7 @@
         <v>11610</v>
       </c>
       <c r="B205" t="n">
-        <v>130208</v>
+        <v>160921</v>
       </c>
       <c r="C205" t="s">
         <v>1566</v>
@@ -22137,7 +22137,7 @@
         <v>11610</v>
       </c>
       <c r="B206" t="n">
-        <v>130209</v>
+        <v>160922</v>
       </c>
       <c r="C206" t="s">
         <v>1575</v>
@@ -22275,7 +22275,7 @@
         <v>11610</v>
       </c>
       <c r="B208" t="n">
-        <v>130210</v>
+        <v>160923</v>
       </c>
       <c r="C208" t="s">
         <v>1592</v>
@@ -22346,7 +22346,7 @@
         <v>11610</v>
       </c>
       <c r="B209" t="n">
-        <v>130211</v>
+        <v>160924</v>
       </c>
       <c r="C209" t="s">
         <v>1599</v>
@@ -22415,7 +22415,7 @@
         <v>11610</v>
       </c>
       <c r="B210" t="n">
-        <v>130212</v>
+        <v>160925</v>
       </c>
       <c r="C210" t="s">
         <v>1608</v>
@@ -22551,7 +22551,7 @@
         <v>11610</v>
       </c>
       <c r="B212" t="n">
-        <v>130213</v>
+        <v>160926</v>
       </c>
       <c r="C212" t="s">
         <v>1622</v>
@@ -22683,7 +22683,7 @@
         <v>11610</v>
       </c>
       <c r="B214" t="n">
-        <v>130214</v>
+        <v>160927</v>
       </c>
       <c r="C214" t="s">
         <v>1637</v>
@@ -22748,7 +22748,7 @@
         <v>11610</v>
       </c>
       <c r="B215" t="n">
-        <v>130215</v>
+        <v>160928</v>
       </c>
       <c r="C215" t="s">
         <v>1643</v>
@@ -22817,7 +22817,7 @@
         <v>11610</v>
       </c>
       <c r="B216" t="n">
-        <v>130076</v>
+        <v>130108</v>
       </c>
       <c r="C216" t="s">
         <v>143</v>
@@ -22953,7 +22953,7 @@
         <v>11610</v>
       </c>
       <c r="B218" t="n">
-        <v>130216</v>
+        <v>160929</v>
       </c>
       <c r="C218" t="s">
         <v>1663</v>
@@ -23022,7 +23022,7 @@
         <v>11610</v>
       </c>
       <c r="B219" t="n">
-        <v>130217</v>
+        <v>160930</v>
       </c>
       <c r="C219" t="s">
         <v>1672</v>
@@ -23091,7 +23091,7 @@
         <v>11610</v>
       </c>
       <c r="B220" t="n">
-        <v>130218</v>
+        <v>160931</v>
       </c>
       <c r="C220" t="s">
         <v>1679</v>
@@ -23160,7 +23160,7 @@
         <v>11610</v>
       </c>
       <c r="B221" t="n">
-        <v>130219</v>
+        <v>160932</v>
       </c>
       <c r="C221" t="s">
         <v>1686</v>
@@ -23229,7 +23229,7 @@
         <v>11610</v>
       </c>
       <c r="B222" t="n">
-        <v>130220</v>
+        <v>160933</v>
       </c>
       <c r="C222" t="s">
         <v>1695</v>
@@ -23300,7 +23300,7 @@
         <v>11610</v>
       </c>
       <c r="B223" t="n">
-        <v>130221</v>
+        <v>160934</v>
       </c>
       <c r="C223" t="s">
         <v>1702</v>
@@ -23369,7 +23369,7 @@
         <v>11610</v>
       </c>
       <c r="B224" t="n">
-        <v>130222</v>
+        <v>160935</v>
       </c>
       <c r="C224" t="s">
         <v>1709</v>
@@ -23505,7 +23505,7 @@
         <v>11610</v>
       </c>
       <c r="B226" t="n">
-        <v>130223</v>
+        <v>160936</v>
       </c>
       <c r="C226" t="s">
         <v>1727</v>
@@ -23566,7 +23566,7 @@
         <v>11610</v>
       </c>
       <c r="B227" t="n">
-        <v>130224</v>
+        <v>160937</v>
       </c>
       <c r="C227" t="s">
         <v>1736</v>
@@ -23637,7 +23637,7 @@
         <v>11610</v>
       </c>
       <c r="B228" t="n">
-        <v>130225</v>
+        <v>160938</v>
       </c>
       <c r="C228" t="s">
         <v>1745</v>
@@ -23706,7 +23706,7 @@
         <v>11610</v>
       </c>
       <c r="B229" t="n">
-        <v>130226</v>
+        <v>160939</v>
       </c>
       <c r="C229" t="s">
         <v>1755</v>
@@ -23775,7 +23775,7 @@
         <v>11610</v>
       </c>
       <c r="B230" t="n">
-        <v>130227</v>
+        <v>160940</v>
       </c>
       <c r="C230" t="s">
         <v>1762</v>
@@ -23846,7 +23846,7 @@
         <v>11610</v>
       </c>
       <c r="B231" t="n">
-        <v>130228</v>
+        <v>160941</v>
       </c>
       <c r="C231" t="s">
         <v>1771</v>
@@ -23917,7 +23917,7 @@
         <v>11610</v>
       </c>
       <c r="B232" t="n">
-        <v>130229</v>
+        <v>160942</v>
       </c>
       <c r="C232" t="s">
         <v>1780</v>
@@ -23988,7 +23988,7 @@
         <v>11610</v>
       </c>
       <c r="B233" t="n">
-        <v>130230</v>
+        <v>160943</v>
       </c>
       <c r="C233" t="s">
         <v>1790</v>
@@ -24124,7 +24124,7 @@
         <v>11610</v>
       </c>
       <c r="B235" t="n">
-        <v>130231</v>
+        <v>160944</v>
       </c>
       <c r="C235" t="s">
         <v>1806</v>
@@ -24189,7 +24189,7 @@
         <v>11610</v>
       </c>
       <c r="B236" t="n">
-        <v>130232</v>
+        <v>160945</v>
       </c>
       <c r="C236" t="s">
         <v>1813</v>
@@ -24260,7 +24260,7 @@
         <v>11610</v>
       </c>
       <c r="B237" t="n">
-        <v>130233</v>
+        <v>160946</v>
       </c>
       <c r="C237" t="s">
         <v>1823</v>
@@ -24394,7 +24394,7 @@
         <v>11610</v>
       </c>
       <c r="B239" t="n">
-        <v>130234</v>
+        <v>160947</v>
       </c>
       <c r="C239" t="s">
         <v>1837</v>
@@ -24463,7 +24463,7 @@
         <v>11610</v>
       </c>
       <c r="B240" t="n">
-        <v>130235</v>
+        <v>160948</v>
       </c>
       <c r="C240" t="s">
         <v>1845</v>
@@ -24528,7 +24528,7 @@
         <v>11610</v>
       </c>
       <c r="B241" t="n">
-        <v>130236</v>
+        <v>160949</v>
       </c>
       <c r="C241" t="s">
         <v>1852</v>
@@ -24599,7 +24599,7 @@
         <v>11610</v>
       </c>
       <c r="B242" t="n">
-        <v>130237</v>
+        <v>160950</v>
       </c>
       <c r="C242" t="s">
         <v>1860</v>
@@ -24668,7 +24668,7 @@
         <v>11610</v>
       </c>
       <c r="B243" t="n">
-        <v>130238</v>
+        <v>160951</v>
       </c>
       <c r="C243" t="s">
         <v>1867</v>
@@ -24737,7 +24737,7 @@
         <v>11610</v>
       </c>
       <c r="B244" t="n">
-        <v>130239</v>
+        <v>160952</v>
       </c>
       <c r="C244" t="s">
         <v>1874</v>
@@ -24877,7 +24877,7 @@
         <v>11610</v>
       </c>
       <c r="B246" t="n">
-        <v>130240</v>
+        <v>160953</v>
       </c>
       <c r="C246" t="s">
         <v>1888</v>
@@ -24946,7 +24946,7 @@
         <v>11610</v>
       </c>
       <c r="B247" t="n">
-        <v>130241</v>
+        <v>160954</v>
       </c>
       <c r="C247" t="s">
         <v>1895</v>
@@ -25015,7 +25015,7 @@
         <v>11610</v>
       </c>
       <c r="B248" t="n">
-        <v>130242</v>
+        <v>160955</v>
       </c>
       <c r="C248" t="s">
         <v>1902</v>
@@ -25076,7 +25076,7 @@
         <v>11610</v>
       </c>
       <c r="B249" t="n">
-        <v>130243</v>
+        <v>160956</v>
       </c>
       <c r="C249" t="s">
         <v>1909</v>
@@ -25210,7 +25210,7 @@
         <v>11610</v>
       </c>
       <c r="B251" t="n">
-        <v>130244</v>
+        <v>160957</v>
       </c>
       <c r="C251" t="s">
         <v>1925</v>
@@ -25281,7 +25281,7 @@
         <v>11610</v>
       </c>
       <c r="B252" t="n">
-        <v>130245</v>
+        <v>160958</v>
       </c>
       <c r="C252" t="s">
         <v>1932</v>
@@ -25350,7 +25350,7 @@
         <v>11610</v>
       </c>
       <c r="B253" t="n">
-        <v>130246</v>
+        <v>160959</v>
       </c>
       <c r="C253" t="s">
         <v>1941</v>
@@ -25421,7 +25421,7 @@
         <v>11610</v>
       </c>
       <c r="B254" t="n">
-        <v>130247</v>
+        <v>160960</v>
       </c>
       <c r="C254" t="s">
         <v>1948</v>
@@ -25492,7 +25492,7 @@
         <v>11610</v>
       </c>
       <c r="B255" t="n">
-        <v>130248</v>
+        <v>160961</v>
       </c>
       <c r="C255" t="s">
         <v>1955</v>
@@ -25632,7 +25632,7 @@
         <v>11610</v>
       </c>
       <c r="B257" t="n">
-        <v>130249</v>
+        <v>160962</v>
       </c>
       <c r="C257" t="s">
         <v>1968</v>
@@ -25701,7 +25701,7 @@
         <v>11610</v>
       </c>
       <c r="B258" t="n">
-        <v>130250</v>
+        <v>160963</v>
       </c>
       <c r="C258" t="s">
         <v>1975</v>
@@ -25766,7 +25766,7 @@
         <v>11610</v>
       </c>
       <c r="B259" t="n">
-        <v>130251</v>
+        <v>160964</v>
       </c>
       <c r="C259" t="s">
         <v>1982</v>
@@ -25902,7 +25902,7 @@
         <v>11610</v>
       </c>
       <c r="B261" t="n">
-        <v>130252</v>
+        <v>160965</v>
       </c>
       <c r="C261" t="s">
         <v>1996</v>
@@ -26042,7 +26042,7 @@
         <v>11610</v>
       </c>
       <c r="B263" t="n">
-        <v>130253</v>
+        <v>160966</v>
       </c>
       <c r="C263" t="s">
         <v>2010</v>
@@ -26107,7 +26107,7 @@
         <v>11610</v>
       </c>
       <c r="B264" t="n">
-        <v>130254</v>
+        <v>160967</v>
       </c>
       <c r="C264" t="s">
         <v>2019</v>
@@ -26320,7 +26320,7 @@
         <v>11610</v>
       </c>
       <c r="B267" t="n">
-        <v>130255</v>
+        <v>160968</v>
       </c>
       <c r="C267" t="s">
         <v>2042</v>
@@ -26529,7 +26529,7 @@
         <v>11610</v>
       </c>
       <c r="B270" t="n">
-        <v>130256</v>
+        <v>160969</v>
       </c>
       <c r="C270" t="s">
         <v>2065</v>
@@ -26663,7 +26663,7 @@
         <v>11610</v>
       </c>
       <c r="B272" t="n">
-        <v>130257</v>
+        <v>160970</v>
       </c>
       <c r="C272" t="s">
         <v>2079</v>
@@ -26732,7 +26732,7 @@
         <v>11610</v>
       </c>
       <c r="B273" t="n">
-        <v>130258</v>
+        <v>160971</v>
       </c>
       <c r="C273" t="s">
         <v>2087</v>
@@ -26874,7 +26874,7 @@
         <v>11610</v>
       </c>
       <c r="B275" t="n">
-        <v>130259</v>
+        <v>160972</v>
       </c>
       <c r="C275" t="s">
         <v>2102</v>
@@ -27010,7 +27010,7 @@
         <v>11610</v>
       </c>
       <c r="B277" t="n">
-        <v>130260</v>
+        <v>160973</v>
       </c>
       <c r="C277" t="s">
         <v>2118</v>
@@ -27144,7 +27144,7 @@
         <v>11610</v>
       </c>
       <c r="B279" t="n">
-        <v>130261</v>
+        <v>160974</v>
       </c>
       <c r="C279" t="s">
         <v>2133</v>
@@ -27215,7 +27215,7 @@
         <v>11610</v>
       </c>
       <c r="B280" t="n">
-        <v>130262</v>
+        <v>160975</v>
       </c>
       <c r="C280" t="s">
         <v>2138</v>
@@ -27558,7 +27558,7 @@
         <v>11610</v>
       </c>
       <c r="B285" t="n">
-        <v>130263</v>
+        <v>160976</v>
       </c>
       <c r="C285" t="s">
         <v>2173</v>
@@ -28104,7 +28104,7 @@
         <v>11610</v>
       </c>
       <c r="B293" t="n">
-        <v>130264</v>
+        <v>160977</v>
       </c>
       <c r="C293" t="s">
         <v>2231</v>
@@ -28171,7 +28171,7 @@
         <v>11610</v>
       </c>
       <c r="B294" t="n">
-        <v>130265</v>
+        <v>160978</v>
       </c>
       <c r="C294" t="s">
         <v>2238</v>
@@ -28313,7 +28313,7 @@
         <v>11610</v>
       </c>
       <c r="B296" t="n">
-        <v>130266</v>
+        <v>160979</v>
       </c>
       <c r="C296" t="s">
         <v>2254</v>
@@ -28384,7 +28384,7 @@
         <v>11610</v>
       </c>
       <c r="B297" t="n">
-        <v>130267</v>
+        <v>160980</v>
       </c>
       <c r="C297" t="s">
         <v>2261</v>
@@ -28455,7 +28455,7 @@
         <v>11610</v>
       </c>
       <c r="B298" t="n">
-        <v>130268</v>
+        <v>160981</v>
       </c>
       <c r="C298" t="s">
         <v>2269</v>
@@ -28526,7 +28526,7 @@
         <v>11610</v>
       </c>
       <c r="B299" t="n">
-        <v>130269</v>
+        <v>160982</v>
       </c>
       <c r="C299" t="s">
         <v>2277</v>
@@ -28597,7 +28597,7 @@
         <v>11610</v>
       </c>
       <c r="B300" t="n">
-        <v>130270</v>
+        <v>160983</v>
       </c>
       <c r="C300" t="s">
         <v>2284</v>
@@ -28668,7 +28668,7 @@
         <v>11610</v>
       </c>
       <c r="B301" t="n">
-        <v>130271</v>
+        <v>160984</v>
       </c>
       <c r="C301" t="s">
         <v>2291</v>
@@ -28804,7 +28804,7 @@
         <v>11610</v>
       </c>
       <c r="B303" t="n">
-        <v>130272</v>
+        <v>160985</v>
       </c>
       <c r="C303" t="s">
         <v>2307</v>
@@ -28936,7 +28936,7 @@
         <v>11610</v>
       </c>
       <c r="B305" t="n">
-        <v>130273</v>
+        <v>160986</v>
       </c>
       <c r="C305" t="s">
         <v>2319</v>
@@ -29007,7 +29007,7 @@
         <v>11610</v>
       </c>
       <c r="B306" t="n">
-        <v>130274</v>
+        <v>160987</v>
       </c>
       <c r="C306" t="s">
         <v>2328</v>
@@ -29216,7 +29216,7 @@
         <v>11610</v>
       </c>
       <c r="B309" t="n">
-        <v>130275</v>
+        <v>160988</v>
       </c>
       <c r="C309" t="s">
         <v>2351</v>
@@ -29425,7 +29425,7 @@
         <v>11610</v>
       </c>
       <c r="B312" t="n">
-        <v>130276</v>
+        <v>160989</v>
       </c>
       <c r="C312" t="s">
         <v>2376</v>
@@ -29494,7 +29494,7 @@
         <v>11610</v>
       </c>
       <c r="B313" t="n">
-        <v>130277</v>
+        <v>160990</v>
       </c>
       <c r="C313" t="s">
         <v>2385</v>
@@ -29565,7 +29565,7 @@
         <v>11610</v>
       </c>
       <c r="B314" t="n">
-        <v>130278</v>
+        <v>160991</v>
       </c>
       <c r="C314" t="s">
         <v>2392</v>
@@ -29636,7 +29636,7 @@
         <v>11610</v>
       </c>
       <c r="B315" t="n">
-        <v>130279</v>
+        <v>160992</v>
       </c>
       <c r="C315" t="s">
         <v>2401</v>
@@ -29778,7 +29778,7 @@
         <v>11610</v>
       </c>
       <c r="B317" t="n">
-        <v>130280</v>
+        <v>160993</v>
       </c>
       <c r="C317" t="s">
         <v>2415</v>
@@ -29843,7 +29843,7 @@
         <v>11610</v>
       </c>
       <c r="B318" t="n">
-        <v>130281</v>
+        <v>160994</v>
       </c>
       <c r="C318" t="s">
         <v>2424</v>
@@ -29914,7 +29914,7 @@
         <v>11610</v>
       </c>
       <c r="B319" t="n">
-        <v>130282</v>
+        <v>160995</v>
       </c>
       <c r="C319" t="s">
         <v>2434</v>
@@ -30109,7 +30109,7 @@
         <v>11610</v>
       </c>
       <c r="B322" t="n">
-        <v>130283</v>
+        <v>160996</v>
       </c>
       <c r="C322" t="s">
         <v>2457</v>
@@ -30239,7 +30239,7 @@
         <v>11610</v>
       </c>
       <c r="B324" t="n">
-        <v>130284</v>
+        <v>160997</v>
       </c>
       <c r="C324" t="s">
         <v>2471</v>
@@ -30308,7 +30308,7 @@
         <v>11610</v>
       </c>
       <c r="B325" t="n">
-        <v>130285</v>
+        <v>160998</v>
       </c>
       <c r="C325" t="s">
         <v>2480</v>
@@ -30446,7 +30446,7 @@
         <v>11610</v>
       </c>
       <c r="B327" t="n">
-        <v>130286</v>
+        <v>160999</v>
       </c>
       <c r="C327" t="s">
         <v>2497</v>
@@ -30588,7 +30588,7 @@
         <v>11610</v>
       </c>
       <c r="B329" t="n">
-        <v>130287</v>
+        <v>161000</v>
       </c>
       <c r="C329" t="s">
         <v>2516</v>
@@ -30734,7 +30734,7 @@
         <v>11610</v>
       </c>
       <c r="B331" t="n">
-        <v>130288</v>
+        <v>161001</v>
       </c>
       <c r="C331" t="s">
         <v>2532</v>
@@ -30805,7 +30805,7 @@
         <v>11610</v>
       </c>
       <c r="B332" t="n">
-        <v>130289</v>
+        <v>161002</v>
       </c>
       <c r="C332" t="s">
         <v>2538</v>
@@ -30870,7 +30870,7 @@
         <v>11610</v>
       </c>
       <c r="B333" t="n">
-        <v>130290</v>
+        <v>161003</v>
       </c>
       <c r="C333" t="s">
         <v>2547</v>
@@ -30945,7 +30945,7 @@
         <v>11610</v>
       </c>
       <c r="B334" t="n">
-        <v>130291</v>
+        <v>161004</v>
       </c>
       <c r="C334" t="s">
         <v>2555</v>
